--- a/branches/Organization-resource-dev-FIG52/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Organization-resource-dev-FIG52/StructureDefinition-hiv-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T13:24:20+00:00</t>
+    <t>2023-02-20T13:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/Organization-resource-dev-FIG52/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Organization-resource-dev-FIG52/StructureDefinition-hiv-patient.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$65</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T13:26:35+00:00</t>
+    <t>2023-02-21T13:29:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,17 +446,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Patient.extension:keyPopulation</t>
-  </si>
-  <si>
-    <t>keyPopulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/key-population}
+    <t>Patient.extension:KPS</t>
+  </si>
+  <si>
+    <t>KPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/key-population-status}
 </t>
   </si>
   <si>
-    <t>Key population</t>
+    <t>Key HIV Population</t>
+  </si>
+  <si>
+    <t>Populations who are at higher risk for HIV</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1133,7 +1133,10 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-marital-status</t>
+    <t>The domestic partnership status of a person.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -1675,21 +1678,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1877,7 +1865,7 @@
   <cols>
     <col min="1" max="1" width="39.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.47265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1885,7 +1873,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1900,7 +1888,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.44921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2042,7 +2030,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>9</v>
       </c>
@@ -2157,7 +2145,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2274,7 +2262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2389,7 +2377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>100</v>
       </c>
@@ -2506,7 +2494,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>106</v>
       </c>
@@ -2623,7 +2611,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2740,7 +2728,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>123</v>
       </c>
@@ -2857,7 +2845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -2870,7 +2858,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>79</v>
@@ -2970,7 +2958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>139</v>
       </c>
@@ -2985,13 +2973,13 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>80</v>
@@ -3006,7 +2994,7 @@
         <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3066,7 +3054,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>138</v>
@@ -3087,16 +3075,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3118,16 +3106,16 @@
         <v>132</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -3176,7 +3164,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3206,12 +3194,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3234,17 +3222,17 @@
         <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
@@ -3281,17 +3269,17 @@
         <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3306,30 +3294,30 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
@@ -3351,17 +3339,17 @@
         <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3410,7 +3398,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3425,27 +3413,27 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3468,13 +3456,13 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3525,7 +3513,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3540,7 +3528,7 @@
         <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
@@ -3555,16 +3543,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3586,13 +3574,13 @@
         <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3633,7 +3621,7 @@
         <v>135</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>80</v>
@@ -3642,7 +3630,7 @@
         <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3657,7 +3645,7 @@
         <v>138</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
@@ -3672,12 +3660,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3703,16 +3691,16 @@
         <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3737,13 +3725,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3761,7 +3749,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3776,7 +3764,7 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
@@ -3791,12 +3779,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3819,19 +3807,19 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -3856,13 +3844,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3880,7 +3868,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3895,7 +3883,7 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
@@ -3904,18 +3892,18 @@
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3941,29 +3929,29 @@
         <v>101</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>80</v>
@@ -3999,7 +3987,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4014,7 +4002,7 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
@@ -4023,18 +4011,18 @@
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4057,16 +4045,16 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4080,7 +4068,7 @@
         <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>80</v>
@@ -4116,7 +4104,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4131,7 +4119,7 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
@@ -4140,18 +4128,18 @@
         <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4174,13 +4162,13 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4231,7 +4219,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4246,7 +4234,7 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
@@ -4255,18 +4243,18 @@
         <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4289,16 +4277,16 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4348,7 +4336,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4363,7 +4351,7 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>80</v>
@@ -4372,18 +4360,18 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4406,70 +4394,70 @@
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4484,13 +4472,13 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4499,12 +4487,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4527,19 +4515,19 @@
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4588,7 +4576,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4603,27 +4591,27 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4646,13 +4634,13 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4703,7 +4691,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4718,7 +4706,7 @@
         <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>80</v>
@@ -4733,16 +4721,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4764,13 +4752,13 @@
         <v>132</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4811,7 +4799,7 @@
         <v>135</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
@@ -4820,7 +4808,7 @@
         <v>136</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4835,7 +4823,7 @@
         <v>138</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>80</v>
@@ -4850,12 +4838,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4881,16 +4869,16 @@
         <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4915,13 +4903,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -4939,7 +4927,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4954,7 +4942,7 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>80</v>
@@ -4963,18 +4951,18 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4997,19 +4985,19 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5058,7 +5046,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5073,7 +5061,7 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
@@ -5082,22 +5070,22 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5116,16 +5104,16 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5175,7 +5163,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5190,7 +5178,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>80</v>
@@ -5199,22 +5187,22 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5233,16 +5221,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5292,7 +5280,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5307,7 +5295,7 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>80</v>
@@ -5316,18 +5304,18 @@
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5350,13 +5338,13 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5407,7 +5395,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5422,7 +5410,7 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>80</v>
@@ -5431,18 +5419,18 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5465,13 +5453,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5522,7 +5510,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5537,7 +5525,7 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>80</v>
@@ -5546,18 +5534,18 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5580,17 +5568,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5639,7 +5627,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5654,7 +5642,7 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
@@ -5663,18 +5651,18 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5697,19 +5685,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5758,7 +5746,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5773,27 +5761,27 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5819,16 +5807,16 @@
         <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5853,13 +5841,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5877,7 +5865,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5892,27 +5880,27 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5935,19 +5923,19 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5996,7 +5984,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6011,27 +5999,27 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6054,19 +6042,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6115,7 +6103,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6130,27 +6118,27 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6173,19 +6161,19 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6234,7 +6222,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6249,27 +6237,27 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6292,17 +6280,17 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6327,11 +6315,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6349,7 +6339,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6364,27 +6354,27 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6407,19 +6397,19 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6468,7 +6458,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6483,27 +6473,27 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6526,19 +6516,19 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6587,7 +6577,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6602,27 +6592,27 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6645,19 +6635,19 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6706,7 +6696,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6718,13 +6708,13 @@
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6736,12 +6726,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6764,13 +6754,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6821,7 +6811,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6836,7 +6826,7 @@
         <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
@@ -6851,16 +6841,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6882,13 +6872,13 @@
         <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6938,7 +6928,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6953,7 +6943,7 @@
         <v>138</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>80</v>
@@ -6968,16 +6958,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6999,16 +6989,16 @@
         <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7057,7 +7047,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7087,12 +7077,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7115,17 +7105,17 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7150,13 +7140,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7174,7 +7164,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7189,27 +7179,27 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7232,17 +7222,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7291,7 +7281,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7306,27 +7296,27 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7349,19 +7339,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7410,7 +7400,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7425,27 +7415,27 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7468,17 +7458,17 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7527,7 +7517,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7542,27 +7532,27 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7588,14 +7578,14 @@
         <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7620,13 +7610,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7644,7 +7634,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7659,27 +7649,27 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7702,17 +7692,17 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7761,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7770,33 +7760,33 @@
         <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7819,13 +7809,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7876,7 +7866,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7891,10 +7881,10 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7906,12 +7896,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7934,19 +7924,19 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7995,7 +7985,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8010,10 +8000,10 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -8025,12 +8015,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8053,13 +8043,13 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8110,7 +8100,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8125,7 +8115,7 @@
         <v>80</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -8140,16 +8130,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8171,13 +8161,13 @@
         <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8227,7 +8217,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8242,7 +8232,7 @@
         <v>138</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
@@ -8257,16 +8247,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8288,16 +8278,16 @@
         <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8346,7 +8336,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8376,12 +8366,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8404,19 +8394,19 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8465,7 +8455,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>87</v>
@@ -8480,27 +8470,27 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8523,19 +8513,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8584,7 +8574,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8599,31 +8589,31 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8642,16 +8632,16 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8701,7 +8691,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8716,27 +8706,27 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8759,19 +8749,19 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8820,7 +8810,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8835,10 +8825,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8850,12 +8840,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8878,19 +8868,19 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -8939,7 +8929,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8954,10 +8944,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8969,12 +8959,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8997,13 +8987,13 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9054,7 +9044,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9069,7 +9059,7 @@
         <v>80</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
@@ -9084,16 +9074,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9115,13 +9105,13 @@
         <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9171,7 +9161,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9186,7 +9176,7 @@
         <v>138</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
@@ -9201,16 +9191,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9232,16 +9222,16 @@
         <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9290,7 +9280,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9320,12 +9310,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9348,16 +9338,16 @@
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9407,7 +9397,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>87</v>
@@ -9422,27 +9412,27 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9468,10 +9458,10 @@
         <v>107</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9498,31 +9488,31 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>87</v>
@@ -9537,10 +9527,10 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9553,24 +9543,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO65">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI64">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/Organization-resource-dev-FIG52/StructureDefinition-hiv-patient.xlsx
+++ b/branches/Organization-resource-dev-FIG52/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T13:29:14+00:00</t>
+    <t>2023-02-21T13:30:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
